--- a/api_auto_frame/data/Data.xlsx
+++ b/api_auto_frame/data/Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>caseID</t>
   </si>
@@ -58,7 +58,7 @@
     <t>添加用户</t>
   </si>
   <si>
-    <t>http://192.168.31.44:8080/cms/manage/loginJump.do</t>
+    <t>http://kiros.love/cms/manage/saveSysUser.do</t>
   </si>
   <si>
     <t>case_003_checkuser</t>
@@ -67,10 +67,16 @@
     <t>查看用户</t>
   </si>
   <si>
+    <t>http://kiros.love/cms/manage/queryUserList.do</t>
+  </si>
+  <si>
     <t>case_004_deletekuser</t>
   </si>
   <si>
     <t>删除用户</t>
+  </si>
+  <si>
+    <t>http://kiros.love/cms/manage/deleteByIds.do</t>
   </si>
   <si>
     <t>case_004_deleteuser</t>
@@ -86,7 +92,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,13 +112,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -557,46 +556,49 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -606,97 +608,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1109,7 +1108,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1123,19 +1122,19 @@
     </row>
     <row r="5" ht="71.25" spans="1:6">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -1144,9 +1143,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://kiros.love/cms/manage/loginJump.do" tooltip="http://192.168.31.44:8080/cms/manage/loginJump.do"/>
-    <hyperlink ref="C4" r:id="rId1" display="http://192.168.31.44:8080/cms/manage/loginJump.do" tooltip="http://192.168.31.44:8080/cms/manage/loginJump.do"/>
-    <hyperlink ref="C5" r:id="rId1" display="http://192.168.31.44:8080/cms/manage/loginJump.do" tooltip="http://192.168.31.44:8080/cms/manage/loginJump.do"/>
-    <hyperlink ref="C3" r:id="rId1" display="http://192.168.31.44:8080/cms/manage/loginJump.do" tooltip="http://192.168.31.44:8080/cms/manage/loginJump.do"/>
+    <hyperlink ref="C4" r:id="rId2" display="http://kiros.love/cms/manage/queryUserList.do" tooltip="http://kiros.love/cms/manage/queryUserList.do"/>
+    <hyperlink ref="C5" r:id="rId3" display="http://kiros.love/cms/manage/deleteByIds.do" tooltip="http://kiros.love/cms/manage/deleteByIds.do"/>
+    <hyperlink ref="C3" r:id="rId4" display="http://kiros.love/cms/manage/saveSysUser.do" tooltip="http://kiros.love/cms/manage/saveSysUser.do"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
